--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_10_20.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_10_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>748451.5739046514</v>
+        <v>712837.7145774768</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12284077.05939366</v>
+        <v>12383593.48435851</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6384769.159134619</v>
+        <v>5739665.974240761</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9400750.421568256</v>
+        <v>9692438.925652731</v>
       </c>
     </row>
     <row r="11">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -673,13 +673,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>89.87697820169591</v>
+        <v>266.7331670745509</v>
       </c>
       <c r="H2" t="n">
-        <v>308.5974454495113</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>94.24014755885167</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -718,7 +718,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -737,10 +737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>67.75294586152391</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -752,13 +752,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>135.7303505775365</v>
+        <v>135.3343964518633</v>
       </c>
       <c r="H3" t="n">
-        <v>96.65565115906497</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>33.85559031833735</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -788,13 +788,13 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>141.7193093041456</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8352527003384</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -803,10 +803,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>90.69525225994386</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -864,22 +864,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>116.4834600519698</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>200.4475243713015</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>222.1670476323163</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.245260737819</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>169.3274933806837</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -898,19 +898,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -946,22 +946,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>59.22437893269731</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>65.45124363843954</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -995,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.2229592370504</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1053,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>6.479763846979881</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1110,16 +1110,16 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>144.8586974472227</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1135,25 +1135,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>178.8675468535232</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>226.7953865649313</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1232,7 +1232,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1290,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,25 +1338,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>103.2588014327185</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>169.7506922491106</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1372,19 +1372,19 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.547702772954</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>206.6581849802338</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>52.88309206631064</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1435,10 +1435,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>65.72456219185311</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1463,13 +1463,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>135.3343964518635</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>92.83156789269626</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>20.22295923705012</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S12" t="n">
-        <v>134.3646350838588</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T12" t="n">
-        <v>192.0665623188214</v>
+        <v>190.7165703189231</v>
       </c>
       <c r="U12" t="n">
-        <v>225.8092030868072</v>
+        <v>225.7871683969286</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>42.76804049595633</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>52.74731720309062</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.3066000448042</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>147.2515091551288</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>104.7965952039006</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>194.6624603617375</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1606,10 +1606,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>146.9246168289006</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1621,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.547702772954</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>50.67650313406838</v>
       </c>
     </row>
     <row r="15">
@@ -1700,13 +1700,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>135.3343964518635</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>92.83156789269626</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>20.22295923705012</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
-        <v>134.3646350838588</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T15" t="n">
-        <v>192.0665623188214</v>
+        <v>190.7165703189231</v>
       </c>
       <c r="U15" t="n">
-        <v>225.8092030868072</v>
+        <v>225.7871683969286</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1767,19 +1767,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>126.9420309065161</v>
       </c>
       <c r="D16" t="n">
-        <v>138.7812907838881</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1815,25 +1815,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1855,13 +1855,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>168.1158122680962</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1897,22 +1897,22 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>33.24139751941241</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2001,19 +2001,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>98.50090852733726</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>166.0258082590282</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
         <v>286.2118382056129</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>24.97436107625053</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2089,13 +2089,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>211.7953803712228</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2137,10 +2137,10 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
-        <v>25.87859906451829</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2250,16 +2250,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>72.64756520950563</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,13 +2289,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>137.0528130181263</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2304,7 +2304,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2323,13 +2323,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>272.132546276635</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>410.9217256534534</v>
@@ -2374,7 +2374,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U23" t="n">
-        <v>131.299731551611</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2383,7 +2383,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2478,7 +2478,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2487,7 +2487,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>6.380068175847859</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2526,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>203.4068132192031</v>
       </c>
       <c r="U25" t="n">
         <v>286.2118382056129</v>
@@ -2554,16 +2554,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>36.34690181272143</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2575,7 +2575,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2608,13 +2608,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U26" t="n">
-        <v>64.37012338319005</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2623,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2712,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>138.6980411577374</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2727,10 +2727,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2766,19 +2766,19 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>13.02719212039631</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2800,16 +2800,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>410.9217256534534</v>
+        <v>218.3799969300104</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V29" t="n">
-        <v>168.1158122680963</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2891,7 +2891,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247723</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2952,7 +2952,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -2964,10 +2964,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>48.18387181302869</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3000,25 +3000,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>13.33835225137439</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3040,13 +3040,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>381.5245088879228</v>
+        <v>231.7176746757228</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H32" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>41.57692977292595</v>
@@ -3091,7 +3091,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3189,10 +3189,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>6.380068175847874</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
         <v>219.5489492761692</v>
@@ -3246,7 +3246,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>147.0633545968144</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3280,10 +3280,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>284.4297735342292</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>236.1496593854058</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3426,7 +3426,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -3435,13 +3435,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>129.6914402933789</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>48.00352625391714</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3505,7 +3505,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>6.686682526454283</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3553,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
-        <v>126.5388824951704</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3663,13 +3663,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>54.15253296738651</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3678,10 +3678,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
-        <v>67.07295908876635</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -3751,7 +3751,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -3760,7 +3760,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3793,16 +3793,16 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>16.34825474388504</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
-        <v>250.995171958902</v>
+        <v>47.36730931179596</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -3909,16 +3909,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>62.09581973348946</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,10 +3948,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -3960,7 +3960,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>214.8192109456344</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -3976,22 +3976,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>4.791624857388396</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>410.9217256534534</v>
+        <v>380.2095258058611</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4027,19 +4027,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -4076,7 +4076,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,10 +4103,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S45" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T45" t="n">
         <v>190.7165703189231</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>171.4083237228201</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4143,19 +4143,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>62.09581973348946</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4191,16 +4191,16 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1686.460553127927</v>
+        <v>1844.676600992462</v>
       </c>
       <c r="C2" t="n">
-        <v>1686.460553127927</v>
+        <v>1475.714084052051</v>
       </c>
       <c r="D2" t="n">
-        <v>1328.194854521177</v>
+        <v>1117.4483854453</v>
       </c>
       <c r="E2" t="n">
-        <v>942.4066019229326</v>
+        <v>731.660132847056</v>
       </c>
       <c r="F2" t="n">
-        <v>531.4206971333251</v>
+        <v>320.6742280574485</v>
       </c>
       <c r="G2" t="n">
-        <v>440.6358706669656</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H2" t="n">
-        <v>128.9212793038229</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I2" t="n">
-        <v>33.72921106255855</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
-        <v>107.8290791267618</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>269.6240911917569</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L2" t="n">
-        <v>507.2468724099484</v>
+        <v>795.7553530872914</v>
       </c>
       <c r="M2" t="n">
-        <v>803.3174389675509</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
-        <v>1108.792545203136</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O2" t="n">
-        <v>1383.90876451977</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P2" t="n">
-        <v>1584.213091808873</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q2" t="n">
-        <v>1686.460553127927</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R2" t="n">
-        <v>1686.460553127927</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>1686.460553127927</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T2" t="n">
-        <v>1686.460553127927</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U2" t="n">
-        <v>1686.460553127927</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V2" t="n">
-        <v>1686.460553127927</v>
+        <v>2231.276441056584</v>
       </c>
       <c r="W2" t="n">
-        <v>1686.460553127927</v>
+        <v>2231.276441056584</v>
       </c>
       <c r="X2" t="n">
-        <v>1686.460553127927</v>
+        <v>2231.276441056584</v>
       </c>
       <c r="Y2" t="n">
-        <v>1686.460553127927</v>
+        <v>2231.276441056584</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>825.8038538200196</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>757.3665347679753</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>608.432125106724</v>
+        <v>607.9167021542602</v>
       </c>
       <c r="E3" t="n">
-        <v>449.1946701012685</v>
+        <v>448.6792471488047</v>
       </c>
       <c r="F3" t="n">
-        <v>302.6601121281534</v>
+        <v>302.1446891756897</v>
       </c>
       <c r="G3" t="n">
-        <v>165.5587479084195</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>67.92677704067708</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I3" t="n">
-        <v>33.72921106255855</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
-        <v>183.8748628766941</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K3" t="n">
-        <v>305.2979551469729</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L3" t="n">
-        <v>514.8888283998035</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M3" t="n">
-        <v>778.8283598952908</v>
+        <v>956.284402521753</v>
       </c>
       <c r="N3" t="n">
-        <v>1064.162230328624</v>
+        <v>1343.569531118698</v>
       </c>
       <c r="O3" t="n">
-        <v>1302.967182080082</v>
+        <v>1884.562538506774</v>
       </c>
       <c r="P3" t="n">
-        <v>1475.296143033791</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q3" t="n">
-        <v>1686.460553127927</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
-        <v>1686.460553127927</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S3" t="n">
-        <v>1543.309735648993</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T3" t="n">
-        <v>1543.309735648993</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>1315.193318779964</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
-        <v>1080.041210548221</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>825.8038538200196</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>825.8038538200196</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
-        <v>825.8038538200196</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>33.72921106255855</v>
+        <v>514.9860105762135</v>
       </c>
       <c r="C4" t="n">
-        <v>33.72921106255855</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="D4" t="n">
-        <v>33.72921106255855</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="E4" t="n">
-        <v>33.72921106255855</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F4" t="n">
-        <v>33.72921106255855</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G4" t="n">
-        <v>33.72921106255855</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H4" t="n">
-        <v>33.72921106255855</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I4" t="n">
-        <v>33.72921106255855</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J4" t="n">
-        <v>35.96388306992289</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K4" t="n">
-        <v>169.472972355726</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>395.84507567387</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M4" t="n">
-        <v>644.9118420064103</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N4" t="n">
-        <v>893.4909737490111</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1107.077740097166</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>1266.31743473321</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
-        <v>1293.13166510086</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1175.471604442305</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>972.9993576026061</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="T4" t="n">
-        <v>748.5881983780441</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="U4" t="n">
-        <v>459.4515713701462</v>
+        <v>1150.699034738196</v>
       </c>
       <c r="V4" t="n">
-        <v>204.7670831642593</v>
+        <v>896.0145465323093</v>
       </c>
       <c r="W4" t="n">
-        <v>33.72921106255855</v>
+        <v>606.5973764953487</v>
       </c>
       <c r="X4" t="n">
-        <v>33.72921106255855</v>
+        <v>606.5973764953487</v>
       </c>
       <c r="Y4" t="n">
-        <v>33.72921106255855</v>
+        <v>606.5973764953487</v>
       </c>
     </row>
     <row r="5">
@@ -4543,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1164.26325471341</v>
+        <v>1263.725694231566</v>
       </c>
       <c r="C5" t="n">
-        <v>795.3007377729979</v>
+        <v>1263.725694231566</v>
       </c>
       <c r="D5" t="n">
-        <v>437.0350391662474</v>
+        <v>1263.725694231566</v>
       </c>
       <c r="E5" t="n">
-        <v>51.24678656800311</v>
+        <v>877.9374416333219</v>
       </c>
       <c r="F5" t="n">
-        <v>51.24678656800311</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="G5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
-        <v>187.528182236282</v>
+        <v>187.5281822362818</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816083</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872914</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230816</v>
       </c>
       <c r="O5" t="n">
         <v>2055.22848474084</v>
@@ -4594,25 +4594,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2502.516723417633</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>2293.771082023457</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U5" t="n">
-        <v>2293.771082023457</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="V5" t="n">
-        <v>2293.771082023457</v>
+        <v>2106.577233583055</v>
       </c>
       <c r="W5" t="n">
-        <v>1941.002426753343</v>
+        <v>2106.577233583055</v>
       </c>
       <c r="X5" t="n">
-        <v>1941.002426753343</v>
+        <v>2040.4648662715</v>
       </c>
       <c r="Y5" t="n">
-        <v>1550.863094777531</v>
+        <v>1650.325534295688</v>
       </c>
     </row>
     <row r="6">
@@ -4622,52 +4622,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542606</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488051</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756901</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G6" t="n">
-        <v>165.4432786182523</v>
+        <v>165.4432786182518</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057928</v>
+        <v>71.67401812057898</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>496.0729413699643</v>
+        <v>614.5430248380219</v>
       </c>
       <c r="L6" t="n">
-        <v>790.7764984014359</v>
+        <v>909.2465818694938</v>
       </c>
       <c r="M6" t="n">
-        <v>1154.038517360656</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N6" t="n">
-        <v>1541.323645957601</v>
+        <v>1659.793729425659</v>
       </c>
       <c r="O6" t="n">
-        <v>2175.502629736639</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P6" t="n">
-        <v>2422.685363568936</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q6" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4679,16 +4679,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W6" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1087.683159487371</v>
+        <v>354.4439942939404</v>
       </c>
       <c r="C7" t="n">
-        <v>918.7469765594642</v>
+        <v>347.89877828689</v>
       </c>
       <c r="D7" t="n">
-        <v>768.6303371471284</v>
+        <v>347.89877828689</v>
       </c>
       <c r="E7" t="n">
-        <v>620.7172435647353</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="F7" t="n">
-        <v>473.8272960668249</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="G7" t="n">
-        <v>305.8408313751036</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H7" t="n">
-        <v>157.1019332386098</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312198</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096585</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R7" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="S7" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="T7" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="U7" t="n">
-        <v>1636.446120074497</v>
+        <v>1347.327782578335</v>
       </c>
       <c r="V7" t="n">
-        <v>1636.446120074497</v>
+        <v>1092.643294372449</v>
       </c>
       <c r="W7" t="n">
-        <v>1636.446120074497</v>
+        <v>803.2261243354878</v>
       </c>
       <c r="X7" t="n">
-        <v>1490.124203461141</v>
+        <v>575.2365734374705</v>
       </c>
       <c r="Y7" t="n">
-        <v>1269.331624317611</v>
+        <v>354.4439942939404</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1236.203140240072</v>
+        <v>1357.104639024234</v>
       </c>
       <c r="C8" t="n">
-        <v>1236.203140240072</v>
+        <v>988.1421220838222</v>
       </c>
       <c r="D8" t="n">
-        <v>877.9374416333219</v>
+        <v>807.4678323327887</v>
       </c>
       <c r="E8" t="n">
-        <v>877.9374416333219</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="F8" t="n">
-        <v>466.9515368437143</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="G8" t="n">
-        <v>51.24678656800311</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872913</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
@@ -4822,7 +4822,7 @@
         <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
         <v>2542.25058172385</v>
@@ -4831,25 +4831,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2228.89447953245</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U8" t="n">
-        <v>1999.808230476964</v>
+        <v>2100.01262627016</v>
       </c>
       <c r="V8" t="n">
-        <v>1999.808230476964</v>
+        <v>2100.01262627016</v>
       </c>
       <c r="W8" t="n">
-        <v>1999.808230476964</v>
+        <v>1747.243971000046</v>
       </c>
       <c r="X8" t="n">
-        <v>1626.342472215884</v>
+        <v>1747.243971000046</v>
       </c>
       <c r="Y8" t="n">
-        <v>1236.203140240072</v>
+        <v>1357.104639024234</v>
       </c>
     </row>
     <row r="9">
@@ -4859,46 +4859,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4432786182521</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057906</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I9" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>298.3188265310613</v>
+        <v>684.9695361605189</v>
       </c>
       <c r="L9" t="n">
-        <v>801.9449557744476</v>
+        <v>979.6730931919907</v>
       </c>
       <c r="M9" t="n">
-        <v>1165.206974733668</v>
+        <v>1342.935112151211</v>
       </c>
       <c r="N9" t="n">
-        <v>1552.492103330613</v>
+        <v>1730.220240748156</v>
       </c>
       <c r="O9" t="n">
-        <v>1884.562538506775</v>
+        <v>2062.290675924318</v>
       </c>
       <c r="P9" t="n">
         <v>2447.023413292609</v>
@@ -4916,16 +4916,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>833.0891146802707</v>
+        <v>621.6669618009208</v>
       </c>
       <c r="C10" t="n">
-        <v>664.1529317523638</v>
+        <v>452.7307788730139</v>
       </c>
       <c r="D10" t="n">
-        <v>514.036292340028</v>
+        <v>452.7307788730139</v>
       </c>
       <c r="E10" t="n">
-        <v>366.1231987576349</v>
+        <v>452.7307788730139</v>
       </c>
       <c r="F10" t="n">
-        <v>219.2332512597245</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="G10" t="n">
-        <v>51.24678656800311</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800311</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="I10" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312198</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074497</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T10" t="n">
-        <v>1532.144300445488</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="U10" t="n">
-        <v>1532.144300445488</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="V10" t="n">
-        <v>1532.144300445488</v>
+        <v>1082.549477544054</v>
       </c>
       <c r="W10" t="n">
-        <v>1242.727130408528</v>
+        <v>793.1323075070932</v>
       </c>
       <c r="X10" t="n">
-        <v>1014.73757951051</v>
+        <v>621.6669618009208</v>
       </c>
       <c r="Y10" t="n">
-        <v>1014.73757951051</v>
+        <v>621.6669618009208</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>852.7397894419585</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C11" t="n">
-        <v>852.7397894419585</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D11" t="n">
-        <v>852.7397894419585</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E11" t="n">
-        <v>466.9515368437143</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F11" t="n">
-        <v>466.9515368437143</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G11" t="n">
-        <v>51.24678656800311</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H11" t="n">
-        <v>51.24678656800311</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I11" t="n">
-        <v>51.24678656800311</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J11" t="n">
-        <v>187.5281822362819</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K11" t="n">
-        <v>442.5171852816084</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L11" t="n">
-        <v>795.755353087291</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M11" t="n">
-        <v>1220.470313923561</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N11" t="n">
-        <v>1656.671415230817</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O11" t="n">
-        <v>2055.22848474084</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
-        <v>2360.886721764997</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q11" t="n">
-        <v>2542.25058172385</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R11" t="n">
-        <v>2562.339328400155</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S11" t="n">
-        <v>2562.339328400155</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T11" t="n">
-        <v>2353.59368700598</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U11" t="n">
-        <v>2300.176422292535</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V11" t="n">
-        <v>1969.113534948964</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W11" t="n">
-        <v>1616.34487967885</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X11" t="n">
-        <v>1242.87912141777</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="Y11" t="n">
-        <v>852.7397894419585</v>
+        <v>2005.586939522201</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>931.3041410966385</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C12" t="n">
-        <v>756.8511118155116</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D12" t="n">
-        <v>607.9167021542603</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E12" t="n">
-        <v>448.6792471488048</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F12" t="n">
-        <v>302.1446891756898</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G12" t="n">
-        <v>165.443278618252</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H12" t="n">
-        <v>71.67401812057899</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I12" t="n">
-        <v>51.24678656800311</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J12" t="n">
-        <v>113.5972052500114</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K12" t="n">
-        <v>560.1394111735142</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L12" t="n">
-        <v>854.8429682049859</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M12" t="n">
-        <v>1218.104987164206</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1605.390115761151</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O12" t="n">
-        <v>1937.460550937313</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
-        <v>2239.046898434118</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q12" t="n">
-        <v>2562.339328400155</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R12" t="n">
-        <v>2562.339328400155</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S12" t="n">
-        <v>2426.617474780096</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T12" t="n">
-        <v>2232.610846175226</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2004.520742047137</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V12" t="n">
-        <v>1769.368633815395</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W12" t="n">
-        <v>1515.131277087193</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1307.27977688166</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y12" t="n">
-        <v>1099.519478116707</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>825.137147448514</v>
+        <v>815.7608990065712</v>
       </c>
       <c r="C13" t="n">
-        <v>825.137147448514</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="D13" t="n">
-        <v>675.0205080361783</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E13" t="n">
-        <v>527.1074144537852</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F13" t="n">
-        <v>473.8272960668249</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G13" t="n">
-        <v>305.8408313751036</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="H13" t="n">
-        <v>157.1019332386097</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I13" t="n">
-        <v>51.24678656800311</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J13" t="n">
-        <v>76.715959553122</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K13" t="n">
-        <v>248.4064713020476</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L13" t="n">
-        <v>523.6376499693235</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M13" t="n">
-        <v>824.2194607096588</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N13" t="n">
-        <v>1123.088724245823</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O13" t="n">
-        <v>1383.126566999035</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P13" t="n">
-        <v>1582.113182171024</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q13" t="n">
-        <v>1636.446120074497</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R13" t="n">
-        <v>1533.86271359008</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S13" t="n">
-        <v>1337.233965749941</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T13" t="n">
-        <v>1114.255484944676</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="U13" t="n">
-        <v>825.137147448514</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="V13" t="n">
-        <v>825.137147448514</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="W13" t="n">
-        <v>825.137147448514</v>
+        <v>1446.191493878358</v>
       </c>
       <c r="X13" t="n">
-        <v>825.137147448514</v>
+        <v>1218.201942980341</v>
       </c>
       <c r="Y13" t="n">
-        <v>825.137147448514</v>
+        <v>997.4093638368109</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1412.134398099143</v>
+        <v>1647.321240915451</v>
       </c>
       <c r="C14" t="n">
-        <v>1263.725694231566</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="D14" t="n">
-        <v>1263.725694231566</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E14" t="n">
-        <v>877.9374416333219</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F14" t="n">
-        <v>466.9515368437143</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G14" t="n">
-        <v>51.24678656800312</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H14" t="n">
-        <v>51.24678656800312</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I14" t="n">
-        <v>51.24678656800312</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J14" t="n">
-        <v>187.5281822362818</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K14" t="n">
-        <v>442.5171852816084</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L14" t="n">
-        <v>795.7553530872924</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M14" t="n">
-        <v>1220.470313923563</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N14" t="n">
-        <v>1656.671415230818</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O14" t="n">
-        <v>2055.228484740841</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P14" t="n">
-        <v>2360.886721764998</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q14" t="n">
-        <v>2542.250581723851</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R14" t="n">
-        <v>2562.339328400156</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>2562.339328400156</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T14" t="n">
-        <v>2562.339328400156</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U14" t="n">
-        <v>2562.339328400156</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V14" t="n">
-        <v>2562.339328400156</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W14" t="n">
-        <v>2562.339328400156</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X14" t="n">
-        <v>2188.873570139076</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y14" t="n">
-        <v>1798.734238163264</v>
+        <v>1647.321240915451</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>931.3041410966385</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C15" t="n">
-        <v>756.8511118155116</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D15" t="n">
-        <v>607.9167021542603</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E15" t="n">
-        <v>448.6792471488048</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F15" t="n">
-        <v>302.1446891756898</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G15" t="n">
-        <v>165.443278618252</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H15" t="n">
-        <v>71.67401812057899</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I15" t="n">
-        <v>51.24678656800312</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J15" t="n">
-        <v>238.4273302370161</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K15" t="n">
-        <v>614.5430248380223</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L15" t="n">
-        <v>909.2465818694941</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M15" t="n">
-        <v>1272.508600828714</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
-        <v>1659.793729425659</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O15" t="n">
-        <v>1991.864164601821</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P15" t="n">
-        <v>2239.046898434118</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q15" t="n">
-        <v>2562.339328400155</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R15" t="n">
-        <v>2562.339328400155</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S15" t="n">
-        <v>2426.617474780096</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T15" t="n">
-        <v>2232.610846175226</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2004.520742047137</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V15" t="n">
-        <v>1769.368633815395</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W15" t="n">
-        <v>1515.131277087193</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>1307.27977688166</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y15" t="n">
-        <v>1099.519478116707</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>528.3525561915587</v>
+        <v>492.7661230698578</v>
       </c>
       <c r="C16" t="n">
-        <v>359.4163732636518</v>
+        <v>364.5418494269123</v>
       </c>
       <c r="D16" t="n">
-        <v>219.2332512597245</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E16" t="n">
-        <v>219.2332512597245</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F16" t="n">
-        <v>219.2332512597245</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G16" t="n">
-        <v>51.24678656800312</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H16" t="n">
-        <v>51.24678656800312</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I16" t="n">
-        <v>51.24678656800312</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J16" t="n">
-        <v>76.715959553122</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K16" t="n">
-        <v>248.4064713020476</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L16" t="n">
-        <v>523.6376499693235</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M16" t="n">
-        <v>824.2194607096588</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N16" t="n">
-        <v>1123.088724245823</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O16" t="n">
-        <v>1383.126566999035</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P16" t="n">
-        <v>1582.113182171024</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q16" t="n">
-        <v>1636.446120074497</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R16" t="n">
-        <v>1636.446120074497</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S16" t="n">
-        <v>1636.446120074497</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T16" t="n">
-        <v>1413.467639269233</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="U16" t="n">
-        <v>1413.467639269233</v>
+        <v>1446.505797040963</v>
       </c>
       <c r="V16" t="n">
-        <v>1158.783151063346</v>
+        <v>1191.821308835076</v>
       </c>
       <c r="W16" t="n">
-        <v>1158.783151063346</v>
+        <v>902.4041387981149</v>
       </c>
       <c r="X16" t="n">
-        <v>930.7936001653286</v>
+        <v>674.4145879000976</v>
       </c>
       <c r="Y16" t="n">
-        <v>710.0010210217985</v>
+        <v>674.4145879000976</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2175.400891308157</v>
+        <v>1594.601034732593</v>
       </c>
       <c r="C17" t="n">
-        <v>1806.438374367745</v>
+        <v>1225.638517792182</v>
       </c>
       <c r="D17" t="n">
-        <v>1448.172675760994</v>
+        <v>867.3728191854311</v>
       </c>
       <c r="E17" t="n">
-        <v>1062.38442316275</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="F17" t="n">
-        <v>651.3985183731427</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G17" t="n">
-        <v>236.3260682181391</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H17" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I17" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R17" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T17" t="n">
-        <v>3325.60582160917</v>
+        <v>3292.028652397644</v>
       </c>
       <c r="U17" t="n">
-        <v>3325.60582160917</v>
+        <v>3038.49817567148</v>
       </c>
       <c r="V17" t="n">
-        <v>3325.60582160917</v>
+        <v>2707.435288327909</v>
       </c>
       <c r="W17" t="n">
-        <v>3325.60582160917</v>
+        <v>2354.666633057795</v>
       </c>
       <c r="X17" t="n">
-        <v>2952.14006334809</v>
+        <v>1981.200874796715</v>
       </c>
       <c r="Y17" t="n">
-        <v>2562.000731372279</v>
+        <v>1981.200874796715</v>
       </c>
     </row>
     <row r="18">
@@ -5585,16 +5585,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G18" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I18" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K18" t="n">
         <v>398.4535849031479</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>848.0708164780106</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="C19" t="n">
-        <v>679.1346335501037</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="D19" t="n">
-        <v>529.0179941377679</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="E19" t="n">
-        <v>381.1049005553748</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F19" t="n">
-        <v>234.2149530574644</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G19" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H19" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I19" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J19" t="n">
         <v>111.634748879119</v>
@@ -5697,28 +5697,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R19" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S19" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T19" t="n">
-        <v>1927.294548088493</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="U19" t="n">
-        <v>1638.191681214136</v>
+        <v>1326.59460854119</v>
       </c>
       <c r="V19" t="n">
-        <v>1383.507193008249</v>
+        <v>1071.910120335303</v>
       </c>
       <c r="W19" t="n">
-        <v>1094.090022971289</v>
+        <v>782.4929502983425</v>
       </c>
       <c r="X19" t="n">
-        <v>1068.863395621541</v>
+        <v>554.5033994003252</v>
       </c>
       <c r="Y19" t="n">
-        <v>848.0708164780106</v>
+        <v>333.710820256795</v>
       </c>
     </row>
     <row r="20">
@@ -5728,34 +5728,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1590.514489367197</v>
+        <v>1418.660964416653</v>
       </c>
       <c r="C20" t="n">
-        <v>1221.551972426786</v>
+        <v>1049.698447476241</v>
       </c>
       <c r="D20" t="n">
-        <v>863.2862738200351</v>
+        <v>691.4327488694908</v>
       </c>
       <c r="E20" t="n">
-        <v>477.498021221791</v>
+        <v>691.4327488694908</v>
       </c>
       <c r="F20" t="n">
-        <v>66.51211643218343</v>
+        <v>280.4468440798832</v>
       </c>
       <c r="G20" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L20" t="n">
         <v>1040.244834329465</v>
@@ -5770,10 +5770,10 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R20" t="n">
         <v>3325.605821609171</v>
@@ -5782,22 +5782,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T20" t="n">
-        <v>3119.628073993394</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U20" t="n">
-        <v>3119.628073993394</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="V20" t="n">
-        <v>3093.488074938325</v>
+        <v>2535.034709923659</v>
       </c>
       <c r="W20" t="n">
-        <v>2740.71941966821</v>
+        <v>2182.266054653544</v>
       </c>
       <c r="X20" t="n">
-        <v>2367.25366140713</v>
+        <v>1808.800296392465</v>
       </c>
       <c r="Y20" t="n">
-        <v>1977.114329431319</v>
+        <v>1418.660964416653</v>
       </c>
     </row>
     <row r="21">
@@ -5807,25 +5807,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D21" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G21" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927783</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I21" t="n">
         <v>66.51211643218342</v>
@@ -5837,7 +5837,7 @@
         <v>398.4535849031481</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
@@ -5849,34 +5849,34 @@
         <v>2096.912393410639</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q21" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R21" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S21" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T21" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V21" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W21" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="22">
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>753.0765981364621</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C22" t="n">
-        <v>584.1404152085552</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D22" t="n">
-        <v>434.0237757962194</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E22" t="n">
-        <v>286.1106822138263</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F22" t="n">
-        <v>212.7293032143257</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G22" t="n">
-        <v>212.7293032143257</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H22" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J22" t="n">
         <v>111.634748879119</v>
@@ -5937,25 +5937,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S22" t="n">
-        <v>1927.294548088493</v>
+        <v>1788.857363221699</v>
       </c>
       <c r="T22" t="n">
-        <v>1927.294548088493</v>
+        <v>1567.090747791224</v>
       </c>
       <c r="U22" t="n">
-        <v>1638.191681214136</v>
+        <v>1567.090747791224</v>
       </c>
       <c r="V22" t="n">
-        <v>1383.507193008249</v>
+        <v>1312.406259585337</v>
       </c>
       <c r="W22" t="n">
-        <v>1383.507193008249</v>
+        <v>1312.406259585337</v>
       </c>
       <c r="X22" t="n">
-        <v>1155.517642110232</v>
+        <v>1312.406259585337</v>
       </c>
       <c r="Y22" t="n">
-        <v>934.7250629667018</v>
+        <v>1091.613680441807</v>
       </c>
     </row>
     <row r="23">
@@ -5965,16 +5965,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2303.170539913434</v>
+        <v>1808.800296392465</v>
       </c>
       <c r="C23" t="n">
-        <v>1934.208022973022</v>
+        <v>1439.837779452053</v>
       </c>
       <c r="D23" t="n">
-        <v>1575.942324366272</v>
+        <v>1164.956419576664</v>
       </c>
       <c r="E23" t="n">
-        <v>1190.154071768027</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="F23" t="n">
         <v>779.1681669784198</v>
@@ -5989,13 +5989,13 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L23" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M23" t="n">
         <v>1573.776739001389</v>
@@ -6022,19 +6022,19 @@
         <v>3119.628073993393</v>
       </c>
       <c r="U23" t="n">
-        <v>2987.002082527119</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="V23" t="n">
-        <v>2655.939195183548</v>
+        <v>2535.034709923659</v>
       </c>
       <c r="W23" t="n">
-        <v>2303.170539913434</v>
+        <v>2182.266054653544</v>
       </c>
       <c r="X23" t="n">
-        <v>2303.170539913434</v>
+        <v>1808.800296392465</v>
       </c>
       <c r="Y23" t="n">
-        <v>2303.170539913434</v>
+        <v>1808.800296392465</v>
       </c>
     </row>
     <row r="24">
@@ -6068,13 +6068,13 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J24" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K24" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L24" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M24" t="n">
         <v>1212.428070438129</v>
@@ -6123,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>241.8928126690276</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C25" t="n">
-        <v>72.95662974112065</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D25" t="n">
-        <v>72.95662974112065</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E25" t="n">
-        <v>72.95662974112065</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F25" t="n">
         <v>66.51211643218342</v>
@@ -6174,25 +6174,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S25" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T25" t="n">
-        <v>1705.527932658019</v>
+        <v>1530.147236421175</v>
       </c>
       <c r="U25" t="n">
-        <v>1416.425065783662</v>
+        <v>1241.044369546818</v>
       </c>
       <c r="V25" t="n">
-        <v>1161.740577577775</v>
+        <v>986.3598813409312</v>
       </c>
       <c r="W25" t="n">
-        <v>872.3234075408147</v>
+        <v>696.9427113039706</v>
       </c>
       <c r="X25" t="n">
-        <v>644.3338566427974</v>
+        <v>468.9531604059532</v>
       </c>
       <c r="Y25" t="n">
-        <v>423.5412774992673</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1647.321240915451</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="C26" t="n">
-        <v>1278.358723975039</v>
+        <v>1329.547110979148</v>
       </c>
       <c r="D26" t="n">
-        <v>1278.358723975039</v>
+        <v>971.2814123723979</v>
       </c>
       <c r="E26" t="n">
-        <v>892.5704713767946</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F26" t="n">
-        <v>481.5845665871869</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G26" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H26" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I26" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J26" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K26" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L26" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M26" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N26" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O26" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P26" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q26" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R26" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S26" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T26" t="n">
-        <v>3215.315153136265</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U26" t="n">
-        <v>3150.294826486578</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V26" t="n">
-        <v>3150.294826486578</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W26" t="n">
-        <v>2797.526171216464</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X26" t="n">
-        <v>2424.060412955384</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y26" t="n">
-        <v>2033.921080979572</v>
+        <v>1698.50962791956</v>
       </c>
     </row>
     <row r="27">
@@ -6296,22 +6296,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G27" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H27" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I27" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J27" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K27" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L27" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M27" t="n">
         <v>1212.428070438129</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>994.2880032601528</v>
+        <v>651.5308283972846</v>
       </c>
       <c r="C28" t="n">
-        <v>825.3518203322459</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D28" t="n">
-        <v>675.2351809199101</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E28" t="n">
-        <v>527.322087337517</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F28" t="n">
-        <v>380.4321398396066</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G28" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H28" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I28" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J28" t="n">
         <v>111.634748879119</v>
@@ -6414,22 +6414,22 @@
         <v>1927.294548088493</v>
       </c>
       <c r="T28" t="n">
-        <v>1927.294548088493</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U28" t="n">
-        <v>1927.294548088493</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V28" t="n">
-        <v>1914.135768168901</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="W28" t="n">
-        <v>1624.71859813194</v>
+        <v>872.3234075408147</v>
       </c>
       <c r="X28" t="n">
-        <v>1396.729047233923</v>
+        <v>872.3234075408147</v>
       </c>
       <c r="Y28" t="n">
-        <v>1175.936468090393</v>
+        <v>651.5308283972846</v>
       </c>
     </row>
     <row r="29">
@@ -6439,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2005.586939522201</v>
+        <v>1311.909787855437</v>
       </c>
       <c r="C29" t="n">
-        <v>1636.624422581789</v>
+        <v>942.9472709150257</v>
       </c>
       <c r="D29" t="n">
-        <v>1278.358723975039</v>
+        <v>584.6815723082752</v>
       </c>
       <c r="E29" t="n">
-        <v>892.5704713767946</v>
+        <v>584.6815723082752</v>
       </c>
       <c r="F29" t="n">
-        <v>481.5845665871869</v>
+        <v>584.6815723082752</v>
       </c>
       <c r="G29" t="n">
-        <v>66.5121164321834</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H29" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I29" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J29" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K29" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L29" t="n">
         <v>1040.244834329464</v>
@@ -6487,28 +6487,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R29" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S29" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T29" t="n">
-        <v>3325.60582160917</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U29" t="n">
-        <v>3325.60582160917</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V29" t="n">
-        <v>3155.791869823214</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W29" t="n">
-        <v>3155.791869823214</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X29" t="n">
-        <v>2782.326111562134</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y29" t="n">
-        <v>2392.186779586323</v>
+        <v>1698.509627919559</v>
       </c>
     </row>
     <row r="30">
@@ -6518,28 +6518,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C30" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D30" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E30" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F30" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G30" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H30" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I30" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J30" t="n">
         <v>160.1893859228007</v>
@@ -6575,7 +6575,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U30" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V30" t="n">
         <v>1779.608347199865</v>
@@ -6584,10 +6584,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X30" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y30" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="31">
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>994.2880032601528</v>
+        <v>560.1023745137405</v>
       </c>
       <c r="C31" t="n">
-        <v>825.3518203322459</v>
+        <v>560.1023745137405</v>
       </c>
       <c r="D31" t="n">
-        <v>675.2351809199101</v>
+        <v>409.9857351014048</v>
       </c>
       <c r="E31" t="n">
-        <v>527.322087337517</v>
+        <v>262.0726415190117</v>
       </c>
       <c r="F31" t="n">
-        <v>380.4321398396066</v>
+        <v>115.1826940211013</v>
       </c>
       <c r="G31" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H31" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I31" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J31" t="n">
         <v>111.634748879119</v>
@@ -6648,25 +6648,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S31" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T31" t="n">
-        <v>1927.294548088493</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U31" t="n">
-        <v>1638.191681214136</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="V31" t="n">
-        <v>1638.191681214136</v>
+        <v>1259.157560278958</v>
       </c>
       <c r="W31" t="n">
-        <v>1624.71859813194</v>
+        <v>969.7403902419976</v>
       </c>
       <c r="X31" t="n">
-        <v>1396.729047233923</v>
+        <v>741.7508393439803</v>
       </c>
       <c r="Y31" t="n">
-        <v>1175.936468090393</v>
+        <v>741.7508393439803</v>
       </c>
     </row>
     <row r="32">
@@ -6676,40 +6676,40 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1904.487375535336</v>
+        <v>1870.65619074133</v>
       </c>
       <c r="C32" t="n">
-        <v>1535.524858594925</v>
+        <v>1501.693673800918</v>
       </c>
       <c r="D32" t="n">
-        <v>1177.259159988174</v>
+        <v>1143.427975194167</v>
       </c>
       <c r="E32" t="n">
-        <v>791.4709073899301</v>
+        <v>757.6397225959231</v>
       </c>
       <c r="F32" t="n">
-        <v>406.0926155839475</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G32" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H32" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I32" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J32" t="n">
         <v>255.3912473912089</v>
       </c>
       <c r="K32" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L32" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M32" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N32" t="n">
         <v>2120.555556060171</v>
@@ -6724,28 +6724,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R32" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S32" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T32" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U32" t="n">
-        <v>2961.784676410101</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V32" t="n">
         <v>2630.721789066531</v>
       </c>
       <c r="W32" t="n">
-        <v>2277.953133796416</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="X32" t="n">
-        <v>1904.487375535336</v>
+        <v>2257.256030805451</v>
       </c>
       <c r="Y32" t="n">
-        <v>1904.487375535336</v>
+        <v>2257.256030805451</v>
       </c>
     </row>
     <row r="33">
@@ -6755,37 +6755,37 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C33" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D33" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E33" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F33" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G33" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H33" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I33" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J33" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K33" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L33" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M33" t="n">
         <v>1212.428070438129</v>
@@ -6812,7 +6812,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U33" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V33" t="n">
         <v>1779.608347199865</v>
@@ -6821,10 +6821,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X33" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y33" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="34">
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>241.8928126690276</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C34" t="n">
-        <v>72.95662974112065</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D34" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E34" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F34" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G34" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H34" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I34" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J34" t="n">
         <v>111.634748879119</v>
@@ -6882,28 +6882,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R34" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S34" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T34" t="n">
-        <v>1705.527932658019</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U34" t="n">
-        <v>1416.425065783662</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V34" t="n">
-        <v>1161.740577577775</v>
+        <v>986.3598813409312</v>
       </c>
       <c r="W34" t="n">
-        <v>872.3234075408147</v>
+        <v>696.9427113039706</v>
       </c>
       <c r="X34" t="n">
-        <v>644.3338566427974</v>
+        <v>468.9531604059532</v>
       </c>
       <c r="Y34" t="n">
-        <v>423.5412774992673</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2175.400891308157</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C35" t="n">
-        <v>1806.438374367745</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D35" t="n">
-        <v>1448.172675760994</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E35" t="n">
-        <v>1062.38442316275</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F35" t="n">
-        <v>651.3985183731427</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G35" t="n">
-        <v>364.0957168234162</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H35" t="n">
         <v>66.5121164321834</v>
@@ -6937,7 +6937,7 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K35" t="n">
         <v>589.2106210810553</v>
@@ -6955,7 +6955,7 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q35" t="n">
         <v>3266.588755052368</v>
@@ -6964,25 +6964,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S35" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T35" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U35" t="n">
-        <v>3325.60582160917</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V35" t="n">
-        <v>3325.60582160917</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W35" t="n">
-        <v>3325.60582160917</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="X35" t="n">
-        <v>2952.14006334809</v>
+        <v>2392.186779586323</v>
       </c>
       <c r="Y35" t="n">
-        <v>2562.000731372279</v>
+        <v>2392.186779586323</v>
       </c>
     </row>
     <row r="36">
@@ -6992,37 +6992,37 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C36" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D36" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E36" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F36" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G36" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I36" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J36" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K36" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L36" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M36" t="n">
         <v>1212.428070438129</v>
@@ -7049,7 +7049,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U36" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V36" t="n">
         <v>1779.608347199865</v>
@@ -7058,10 +7058,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X36" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y36" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="37">
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>994.2880032601528</v>
+        <v>532.2446860521933</v>
       </c>
       <c r="C37" t="n">
-        <v>825.3518203322459</v>
+        <v>532.2446860521933</v>
       </c>
       <c r="D37" t="n">
-        <v>675.2351809199101</v>
+        <v>382.1280466398575</v>
       </c>
       <c r="E37" t="n">
-        <v>527.322087337517</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="F37" t="n">
-        <v>380.4321398396066</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G37" t="n">
-        <v>212.7293032143256</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H37" t="n">
         <v>66.5121164321834</v>
@@ -7119,28 +7119,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R37" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S37" t="n">
-        <v>1735.608663915319</v>
+        <v>1706.462636004224</v>
       </c>
       <c r="T37" t="n">
-        <v>1513.842048484845</v>
+        <v>1706.462636004224</v>
       </c>
       <c r="U37" t="n">
-        <v>1513.842048484845</v>
+        <v>1417.359769129868</v>
       </c>
       <c r="V37" t="n">
-        <v>1513.842048484845</v>
+        <v>1162.675280923981</v>
       </c>
       <c r="W37" t="n">
-        <v>1224.424878447885</v>
+        <v>1162.675280923981</v>
       </c>
       <c r="X37" t="n">
-        <v>1224.424878447885</v>
+        <v>934.6857300259632</v>
       </c>
       <c r="Y37" t="n">
-        <v>1175.936468090393</v>
+        <v>713.893150882433</v>
       </c>
     </row>
     <row r="38">
@@ -7150,7 +7150,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2047.583838282732</v>
+        <v>1685.375546116517</v>
       </c>
       <c r="C38" t="n">
         <v>1678.62132134232</v>
@@ -7174,10 +7174,10 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L38" t="n">
         <v>1040.244834329464</v>
@@ -7201,25 +7201,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S38" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T38" t="n">
-        <v>3325.60582160917</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U38" t="n">
-        <v>3197.788768583745</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V38" t="n">
-        <v>3197.788768583745</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W38" t="n">
-        <v>3197.788768583745</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X38" t="n">
-        <v>2824.323010322666</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="Y38" t="n">
-        <v>2434.183678346854</v>
+        <v>2071.975386180638</v>
       </c>
     </row>
     <row r="39">
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>718.3439163053883</v>
+        <v>436.8275748897429</v>
       </c>
       <c r="C40" t="n">
-        <v>549.4077333774815</v>
+        <v>436.8275748897429</v>
       </c>
       <c r="D40" t="n">
-        <v>399.2910939651457</v>
+        <v>382.1280466398575</v>
       </c>
       <c r="E40" t="n">
-        <v>399.2910939651457</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="F40" t="n">
-        <v>399.2910939651457</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G40" t="n">
-        <v>231.5882573398647</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H40" t="n">
-        <v>163.837793613838</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I40" t="n">
         <v>66.5121164321834</v>
@@ -7356,28 +7356,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R40" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S40" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T40" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U40" t="n">
-        <v>1638.191681214136</v>
+        <v>1356.675339798491</v>
       </c>
       <c r="V40" t="n">
-        <v>1638.191681214136</v>
+        <v>1356.675339798491</v>
       </c>
       <c r="W40" t="n">
-        <v>1348.774511177176</v>
+        <v>1067.25816976153</v>
       </c>
       <c r="X40" t="n">
-        <v>1120.784960279158</v>
+        <v>839.2686188635128</v>
       </c>
       <c r="Y40" t="n">
-        <v>899.9923811356281</v>
+        <v>618.4760397199826</v>
       </c>
     </row>
     <row r="41">
@@ -7387,40 +7387,40 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1221.525483338121</v>
+        <v>1590.514489367197</v>
       </c>
       <c r="C41" t="n">
-        <v>852.5629663977095</v>
+        <v>1221.551972426786</v>
       </c>
       <c r="D41" t="n">
-        <v>494.2972677909589</v>
+        <v>863.2862738200351</v>
       </c>
       <c r="E41" t="n">
-        <v>108.5090151927147</v>
+        <v>477.498021221791</v>
       </c>
       <c r="F41" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G41" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H41" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I41" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L41" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N41" t="n">
         <v>2120.555556060171</v>
@@ -7435,28 +7435,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R41" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S41" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T41" t="n">
-        <v>3309.092432978983</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U41" t="n">
-        <v>3055.56195625282</v>
+        <v>3071.782307011781</v>
       </c>
       <c r="V41" t="n">
-        <v>2724.499068909249</v>
+        <v>2740.71941966821</v>
       </c>
       <c r="W41" t="n">
-        <v>2371.730413639134</v>
+        <v>2740.71941966821</v>
       </c>
       <c r="X41" t="n">
-        <v>1998.264655378055</v>
+        <v>2367.25366140713</v>
       </c>
       <c r="Y41" t="n">
-        <v>1608.125323402243</v>
+        <v>1977.114329431319</v>
       </c>
     </row>
     <row r="42">
@@ -7487,7 +7487,7 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I42" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J42" t="n">
         <v>160.1893859228007</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1007.446783179745</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C43" t="n">
-        <v>838.5106002518381</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D43" t="n">
-        <v>688.3939608395024</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E43" t="n">
-        <v>540.4808672571093</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F43" t="n">
-        <v>477.7578170212613</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G43" t="n">
-        <v>310.0549803959802</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H43" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I43" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J43" t="n">
         <v>111.634748879119</v>
@@ -7596,25 +7596,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S43" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T43" t="n">
-        <v>1927.294548088493</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U43" t="n">
-        <v>1927.294548088493</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="V43" t="n">
-        <v>1927.294548088493</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="W43" t="n">
-        <v>1637.877378051532</v>
+        <v>1296.852946519558</v>
       </c>
       <c r="X43" t="n">
-        <v>1409.887827153515</v>
+        <v>1068.863395621541</v>
       </c>
       <c r="Y43" t="n">
-        <v>1189.095248009985</v>
+        <v>848.0708164780106</v>
       </c>
     </row>
     <row r="44">
@@ -7624,31 +7624,31 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1619.798686923957</v>
+        <v>1605.601998493312</v>
       </c>
       <c r="C44" t="n">
-        <v>1250.836169983545</v>
+        <v>1605.601998493312</v>
       </c>
       <c r="D44" t="n">
-        <v>892.5704713767946</v>
+        <v>1247.336299886562</v>
       </c>
       <c r="E44" t="n">
-        <v>892.5704713767946</v>
+        <v>861.5480472883173</v>
       </c>
       <c r="F44" t="n">
-        <v>481.5845665871869</v>
+        <v>450.5621424987098</v>
       </c>
       <c r="G44" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H44" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I44" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K44" t="n">
         <v>589.2106210810553</v>
@@ -7657,43 +7657,43 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R44" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S44" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T44" t="n">
-        <v>3325.60582160917</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U44" t="n">
-        <v>3072.075344883006</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V44" t="n">
-        <v>2741.012457539436</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="W44" t="n">
-        <v>2388.243802269321</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="X44" t="n">
-        <v>2014.778044008242</v>
+        <v>2382.341170533246</v>
       </c>
       <c r="Y44" t="n">
-        <v>1624.63871203243</v>
+        <v>1992.201838557434</v>
       </c>
     </row>
     <row r="45">
@@ -7724,28 +7724,28 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I45" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M45" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N45" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O45" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P45" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q45" t="n">
         <v>2565.053542533341</v>
@@ -7782,43 +7782,43 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1007.446783179745</v>
+        <v>700.1577228956174</v>
       </c>
       <c r="C46" t="n">
-        <v>838.5106002518381</v>
+        <v>531.2215399677106</v>
       </c>
       <c r="D46" t="n">
-        <v>688.3939608395024</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="E46" t="n">
-        <v>540.4808672571093</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F46" t="n">
-        <v>477.7578170212613</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G46" t="n">
-        <v>310.0549803959802</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H46" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I46" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J46" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K46" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L46" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M46" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N46" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O46" t="n">
         <v>1617.076751502319</v>
@@ -7839,19 +7839,19 @@
         <v>1927.294548088493</v>
       </c>
       <c r="U46" t="n">
-        <v>1927.294548088493</v>
+        <v>1638.191681214137</v>
       </c>
       <c r="V46" t="n">
-        <v>1927.294548088493</v>
+        <v>1383.50719300825</v>
       </c>
       <c r="W46" t="n">
-        <v>1637.877378051532</v>
+        <v>1094.090022971289</v>
       </c>
       <c r="X46" t="n">
-        <v>1409.887827153515</v>
+        <v>1094.090022971289</v>
       </c>
       <c r="Y46" t="n">
-        <v>1189.095248009985</v>
+        <v>873.2974438277589</v>
       </c>
     </row>
   </sheetData>
@@ -8002,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>26.19461818159743</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8072,16 +8072,16 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>211.0329012241557</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>147.3598584166012</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>45.52166981132082</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8224,7 +8224,7 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>-1.364242052659392e-12</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>199.7516311504071</v>
+        <v>193.3273467878341</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8309,16 +8309,16 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>305.1601501039159</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154985</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8531,13 +8531,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>211.0329012241563</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8549,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>138.9393975111051</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154991</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8765,13 +8765,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>10.12574714858493</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8786,13 +8786,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>54.95314511566465</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>20.93778120154988</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9002,13 +9002,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>10.12574714858493</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>193.3273467878346</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9026,10 +9026,10 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>20.93778120154988</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -22546,10 +22546,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -22561,13 +22561,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>322.4107604933482</v>
+        <v>144.8145356984031</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22597,16 +22597,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>140.3157839734241</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>209.8976922291835</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1044530022292</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -22625,10 +22625,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>104.9555531267918</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -22679,7 +22679,7 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>193.6625353078282</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -22691,10 +22691,10 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -22704,28 +22704,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>89.13672792199344</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.6385546828073</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>150.2028876639205</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>114.7793764994862</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22752,13 +22752,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -22767,7 +22767,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>117.1955049559073</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -22786,25 +22786,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22834,22 +22834,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>64.22783646609707</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>304.2798570400295</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -22941,28 +22941,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>160.7670572516479</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22998,16 +22998,16 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>80.85095794181444</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -23023,25 +23023,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>175.8154947671598</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23071,22 +23071,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>24.24986356353071</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -23178,28 +23178,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23226,25 +23226,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>117.4898945644934</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>55.95896313992654</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -23260,25 +23260,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>301.0185525624054</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>65.70991267247047</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,13 +23308,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>198.1621580621514</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23323,10 +23323,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>304.0065384866159</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23415,19 +23415,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>124.4787806026715</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>92.67373081984063</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23494,10 +23494,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>218.3482749421069</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -23512,10 +23512,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>301.0185525624054</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>65.70991267247047</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>335.5614355219852</v>
       </c>
     </row>
     <row r="15">
@@ -23655,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>40.30479019211175</v>
       </c>
       <c r="D16" t="n">
-        <v>9.834182234324288</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>147.2515091551288</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>104.7965952039006</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>101.5575724195736</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23743,13 +23743,13 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>126.4919521192243</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
         <v>41.57692977292595</v>
@@ -23785,22 +23785,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396201</v>
+        <v>170.6765726202077</v>
       </c>
       <c r="U17" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23889,19 +23889,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>81.33107165460004</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>200.7352943127866</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -23977,13 +23977,13 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>410.9217256534534</v>
+        <v>199.1263452822307</v>
       </c>
       <c r="H20" t="n">
         <v>294.6077643873205</v>
@@ -24025,10 +24025,10 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>301.8736594056166</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24138,16 +24138,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>72.77348281342562</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,13 +24177,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>52.71621231331557</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24211,13 +24211,13 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>82.55049534404799</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -24262,7 +24262,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>119.695440407291</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -24271,7 +24271,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -24366,7 +24366,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24375,7 +24375,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>139.0409798470834</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>166.0258082590282</v>
@@ -24414,10 +24414,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>16.14213605696608</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24442,16 +24442,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>345.5834682595403</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -24463,7 +24463,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24496,13 +24496,13 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>186.6250485757119</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -24511,7 +24511,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24600,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>28.54877994089046</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24615,10 +24615,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
         <v>96.35242040983809</v>
@@ -24654,19 +24654,19 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>239.1104512034317</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24688,16 +24688,16 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>192.541728723443</v>
       </c>
       <c r="H29" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>41.57692977292595</v>
@@ -24730,25 +24730,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>159.6364462020386</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24840,7 +24840,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24852,10 +24852,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>117.8419364459995</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
         <v>96.35242040983809</v>
@@ -24888,25 +24888,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>273.1846460852166</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -24928,13 +24928,13 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>25.35153685378867</v>
+        <v>175.1583710659886</v>
       </c>
       <c r="G32" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24979,7 +24979,7 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -25077,10 +25077,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>142.2354048423645</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25134,7 +25134,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>105.0742887270136</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25168,10 +25168,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>126.4919521192243</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292595</v>
@@ -25204,25 +25204,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>133.5814412930632</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25314,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25323,13 +25323,13 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
         <v>96.35242040983809</v>
@@ -25359,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>60.07758503806298</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>170.5811270981777</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25393,7 +25393,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>358.5862092445533</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -25441,25 +25441,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>124.4562894637316</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25551,13 +25551,13 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>94.46294005082585</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>77.68205582555443</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>219.5489492761692</v>
@@ -25639,7 +25639,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>410.9217256534534</v>
@@ -25648,7 +25648,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25681,16 +25681,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>187.5697153957351</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>203.627862647106</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25797,16 +25797,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>83.32522828944178</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,10 +25836,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.2118382056129</v>
@@ -25848,7 +25848,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>71.70378739095656</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -25864,28 +25864,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>377.9422168060922</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>30.71219984759239</v>
       </c>
       <c r="H44" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,19 +25915,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>8.42365645911724</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26031,19 +26031,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>83.32522828944178</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S46" t="n">
         <v>189.7690253314419</v>
@@ -26079,16 +26079,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>627613.9808174385</v>
+        <v>776970.4433869655</v>
       </c>
     </row>
     <row r="3">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>776970.4433869654</v>
+        <v>776970.4433869657</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>776970.4433869657</v>
+        <v>858592.1870774251</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>776970.4433869655</v>
+        <v>858592.1870774251</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>858592.1870774252</v>
+        <v>858592.1870774253</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>858592.1870774251</v>
+        <v>858592.1870774252</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>858592.1870774253</v>
+        <v>858592.1870774252</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>858592.187077425</v>
+        <v>858592.1870774251</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>858592.1870774252</v>
+        <v>858592.1870774253</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>858592.1870774252</v>
+        <v>858592.1870774253</v>
       </c>
     </row>
     <row r="15">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>247001.9304687609</v>
+        <v>305971.6304943086</v>
       </c>
       <c r="C2" t="n">
-        <v>305971.6304943087</v>
+        <v>305971.6304943086</v>
       </c>
       <c r="D2" t="n">
-        <v>305971.6304943087</v>
+        <v>305971.6304943085</v>
       </c>
       <c r="E2" t="n">
-        <v>305971.6304943086</v>
+        <v>340997.0989709207</v>
       </c>
       <c r="F2" t="n">
-        <v>305971.6304943085</v>
+        <v>340997.0989709205</v>
       </c>
       <c r="G2" t="n">
+        <v>340997.0989709206</v>
+      </c>
+      <c r="H2" t="n">
         <v>340997.0989709205</v>
-      </c>
-      <c r="H2" t="n">
-        <v>340997.0989709207</v>
       </c>
       <c r="I2" t="n">
         <v>340997.0989709205</v>
       </c>
       <c r="J2" t="n">
+        <v>340997.0989709207</v>
+      </c>
+      <c r="K2" t="n">
         <v>340997.0989709206</v>
       </c>
-      <c r="K2" t="n">
-        <v>340997.0989709204</v>
-      </c>
       <c r="L2" t="n">
+        <v>340997.0989709205</v>
+      </c>
+      <c r="M2" t="n">
         <v>340997.0989709206</v>
-      </c>
-      <c r="M2" t="n">
-        <v>340997.0989709205</v>
       </c>
       <c r="N2" t="n">
         <v>340997.0989709205</v>
       </c>
       <c r="O2" t="n">
-        <v>340997.0989709204</v>
+        <v>340997.0989709205</v>
       </c>
       <c r="P2" t="n">
-        <v>340997.0989709205</v>
+        <v>340997.0989709208</v>
       </c>
     </row>
     <row r="3">
@@ -26365,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>863984.3294200042</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
-        <v>238369.8891383883</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>1.82672692972119e-10</v>
+        <v>182072.9798171905</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>173363.8810341906</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,25 +26389,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>110313.0712406508</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
-        <v>56355.79215856569</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>47552.2657934148</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>45920.21121431062</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.513344614068046e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>10460.45598285268</v>
+        <v>12563.1824149934</v>
       </c>
       <c r="C4" t="n">
-        <v>12563.18241499341</v>
+        <v>12563.18241499337</v>
       </c>
       <c r="D4" t="n">
-        <v>12563.18241499341</v>
+        <v>12563.1824149934</v>
       </c>
       <c r="E4" t="n">
-        <v>12563.1824149934</v>
+        <v>6720.683277029938</v>
       </c>
       <c r="F4" t="n">
-        <v>12563.1824149934</v>
+        <v>6720.683277029938</v>
       </c>
       <c r="G4" t="n">
         <v>6720.683277029938</v>
@@ -26469,22 +26469,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>75611.38525919239</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="E5" t="n">
-        <v>59310.17243984472</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="F5" t="n">
-        <v>59310.17243984473</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="G5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="H5" t="n">
         <v>74306.3405613933</v>
@@ -26493,13 +26493,13 @@
         <v>74306.3405613933</v>
       </c>
       <c r="J5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="K5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="L5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="M5" t="n">
         <v>74306.34056139328</v>
@@ -26508,10 +26508,10 @@
         <v>74306.34056139328</v>
       </c>
       <c r="O5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="P5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.34056139331</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-703054.2401932884</v>
+        <v>-919508.5706583408</v>
       </c>
       <c r="C6" t="n">
-        <v>-37899.21349891776</v>
+        <v>195243.2129175786</v>
       </c>
       <c r="D6" t="n">
-        <v>200470.6756394705</v>
+        <v>195243.2129175787</v>
       </c>
       <c r="E6" t="n">
-        <v>234098.2756394703</v>
+        <v>74420.90601724587</v>
       </c>
       <c r="F6" t="n">
-        <v>234098.2756394704</v>
+        <v>256493.8858344362</v>
       </c>
       <c r="G6" t="n">
-        <v>86606.19409830666</v>
+        <v>256493.8858344363</v>
       </c>
       <c r="H6" t="n">
-        <v>259970.0751324974</v>
+        <v>256493.8858344362</v>
       </c>
       <c r="I6" t="n">
-        <v>259970.0751324972</v>
+        <v>256493.8858344362</v>
       </c>
       <c r="J6" t="n">
-        <v>149657.0038918465</v>
+        <v>88888.70802445385</v>
       </c>
       <c r="K6" t="n">
-        <v>203614.2829739315</v>
+        <v>256493.8858344363</v>
       </c>
       <c r="L6" t="n">
-        <v>259970.0751324974</v>
+        <v>256493.8858344363</v>
       </c>
       <c r="M6" t="n">
-        <v>259970.0751324972</v>
+        <v>208941.6200410215</v>
       </c>
       <c r="N6" t="n">
-        <v>259970.0751324973</v>
+        <v>256493.8858344363</v>
       </c>
       <c r="O6" t="n">
-        <v>214049.8639181866</v>
+        <v>256493.8858344363</v>
       </c>
       <c r="P6" t="n">
-        <v>259970.0751324972</v>
+        <v>256493.8858344364</v>
       </c>
     </row>
   </sheetData>
@@ -26737,19 +26737,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>749.98095649761</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="E3" t="n">
-        <v>934.0648921175393</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
-        <v>934.0648921175393</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="G3" t="n">
         <v>1089.776700593298</v>
@@ -26779,7 +26779,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="P3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
     </row>
     <row r="4">
@@ -26789,37 +26789,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>421.6151382819818</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="D4" t="n">
         <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
-        <v>640.5848321000389</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="F4" t="n">
-        <v>640.584832100039</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="H4" t="n">
+        <v>831.4014554022928</v>
+      </c>
+      <c r="I4" t="n">
+        <v>831.4014554022928</v>
+      </c>
+      <c r="J4" t="n">
         <v>831.4014554022929</v>
       </c>
-      <c r="I4" t="n">
+      <c r="K4" t="n">
         <v>831.4014554022926</v>
       </c>
-      <c r="J4" t="n">
-        <v>831.4014554022925</v>
-      </c>
-      <c r="K4" t="n">
-        <v>831.4014554022925</v>
-      </c>
       <c r="L4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="M4" t="n">
         <v>831.4014554022925</v>
@@ -26828,10 +26828,10 @@
         <v>831.4014554022925</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.401455402293</v>
       </c>
     </row>
   </sheetData>
@@ -26959,49 +26959,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>749.98095649761</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
-        <v>184.0839356199291</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
+        <v>155.711808475759</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>155.711808475759</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27011,46 +27011,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>421.6151382819818</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>218.969693818057</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>190.8166233022537</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>640.5848321000389</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
         <v>190.8166233022536</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>421.6151382819817</v>
-      </c>
-      <c r="K4" t="n">
-        <v>218.969693818057</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>190.8166233022536</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27257,22 +27257,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>421.6151382819818</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
-        <v>218.969693818057</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>190.8166233022537</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>190.8166233022536</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.014998820090892</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>30.87735666625586</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
-        <v>116.2357420115542</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>255.8942561066896</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>383.5191561611372</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>475.7894263014939</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M2" t="n">
-        <v>529.4074115682853</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N2" t="n">
-        <v>537.9737769658685</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>507.9933824485897</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P2" t="n">
-        <v>433.5605990775957</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
-        <v>325.5859538330906</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>189.3909196325347</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>68.70428561282128</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T2" t="n">
-        <v>13.19815733494789</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
-        <v>0.2411999056072713</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.613166585674105</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>15.57979307743149</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>55.54104253307773</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J3" t="n">
-        <v>152.4088658859908</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>260.4910271261558</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>350.2623325605112</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>408.7396212911974</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>419.5577428240734</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>383.8133674257156</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>308.0440649433297</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>205.919299602891</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>29.96386179969223</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>6.502193386993428</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1061293806364543</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.352424675651428</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H4" t="n">
-        <v>12.02428484351907</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>40.67109842777204</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J4" t="n">
-        <v>95.61642456855594</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K4" t="n">
-        <v>157.1271577711386</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L4" t="n">
-        <v>201.0686649600314</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M4" t="n">
-        <v>211.9987152932506</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>206.9578596840045</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>191.15908051844</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
-        <v>163.5696171351508</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q4" t="n">
-        <v>113.2471244311391</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>60.80993132519963</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>23.56907366567078</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>5.778541795965189</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.07376861867189614</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T5" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H6" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31442,25 +31442,25 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K7" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L7" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M7" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31469,16 +31469,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31597,10 +31597,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31609,34 +31609,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31679,7 +31679,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31694,10 +31694,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31706,16 +31706,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.75503474218106</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
-        <v>38.45624955336179</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I11" t="n">
-        <v>144.7659768979354</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
-        <v>318.70387994919</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>477.6545005857143</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>592.5726450767381</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>659.3512441730005</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>670.0202366342224</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>632.6811099166596</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>539.9786897190645</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>405.5015080147052</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>235.8772011235312</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>85.56785418745099</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
-        <v>16.4376645838976</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.00912071134716</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H12" t="n">
-        <v>19.40387634380021</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>69.17367361436496</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>189.8178475575841</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
-        <v>324.4289352178438</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>436.2347404177244</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>509.0653662040589</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>522.5388116762073</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>478.0209264405675</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>383.6539365378626</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
-        <v>256.4624964168761</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
-        <v>124.7417227624141</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>37.31853601997902</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>8.098166376000172</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.684379313654579</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
-        <v>14.97566335231072</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>50.65387972335772</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
-        <v>119.0856174753787</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K13" t="n">
-        <v>195.6942511682319</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>250.4212663227908</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
-        <v>264.0341136849627</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>257.7559726067959</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>238.0793597154673</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
-        <v>203.7180217169137</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q13" t="n">
-        <v>141.0437987097484</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>75.73581895759587</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>29.35413767523479</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>7.196893431069562</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.75503474218106</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H14" t="n">
-        <v>38.45624955336179</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I14" t="n">
-        <v>144.7659768979354</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
-        <v>318.70387994919</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>477.6545005857143</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L14" t="n">
-        <v>592.5726450767381</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M14" t="n">
-        <v>659.3512441730005</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N14" t="n">
-        <v>670.0202366342224</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O14" t="n">
-        <v>632.6811099166596</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P14" t="n">
-        <v>539.9786897190645</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q14" t="n">
-        <v>405.5015080147052</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R14" t="n">
-        <v>235.8772011235312</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S14" t="n">
-        <v>85.56785418745099</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T14" t="n">
-        <v>16.4376645838976</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.00912071134716</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H15" t="n">
-        <v>19.40387634380021</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>69.17367361436496</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>189.8178475575841</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
-        <v>324.4289352178438</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>436.2347404177244</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>509.0653662040589</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>522.5388116762073</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O15" t="n">
-        <v>478.0209264405675</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>383.6539365378626</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>256.4624964168761</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
-        <v>124.7417227624141</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>37.31853601997902</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T15" t="n">
-        <v>8.098166376000172</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.684379313654579</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
-        <v>14.97566335231072</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>50.65387972335772</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J16" t="n">
-        <v>119.0856174753787</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K16" t="n">
-        <v>195.6942511682319</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>250.4212663227908</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
-        <v>264.0341136849627</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>257.7559726067959</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O16" t="n">
-        <v>238.0793597154673</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P16" t="n">
-        <v>203.7180217169137</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q16" t="n">
-        <v>141.0437987097484</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>75.73581895759587</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S16" t="n">
-        <v>29.35413767523479</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T16" t="n">
-        <v>7.196893431069562</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U16" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -33028,7 +33028,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K27" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
         <v>508.9565619138796</v>
@@ -33046,7 +33046,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
@@ -33757,7 +33757,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
@@ -33982,7 +33982,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N39" t="n">
         <v>609.6478166837925</v>
@@ -33994,7 +33994,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -34222,7 +34222,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O42" t="n">
         <v>557.708647897025</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H44" t="n">
         <v>44.86703772844668</v>
@@ -34368,40 +34368,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K44" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T44" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,46 +34438,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H45" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O45" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987476</v>
       </c>
       <c r="R45" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34520,43 +34520,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H46" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K46" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L46" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M46" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P46" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q46" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U46" t="n">
         <v>0.1071911508780295</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>74.84835158000331</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>163.4293051161566</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>240.0230113315067</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M2" t="n">
-        <v>299.0611783410126</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N2" t="n">
-        <v>308.5607133692776</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>277.895171026903</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P2" t="n">
-        <v>202.3276033223262</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
-        <v>103.2802639586411</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>151.6622745597329</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K3" t="n">
-        <v>122.6495881517968</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>211.707952780637</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>266.6055873691791</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N3" t="n">
-        <v>288.2160307407401</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>241.2171229812711</v>
+        <v>546.4575832202787</v>
       </c>
       <c r="P3" t="n">
-        <v>174.0696575289995</v>
+        <v>568.1422977634695</v>
       </c>
       <c r="Q3" t="n">
-        <v>213.2973839334707</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>2.257244451883167</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K4" t="n">
-        <v>134.8576659452557</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>228.6586902203475</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
-        <v>251.5825922550912</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>251.0900320632331</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>215.7442084324797</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
-        <v>160.8481764000443</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>27.08508117944473</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457266</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637948</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939901</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091739</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K6" t="n">
-        <v>386.3391273938919</v>
+        <v>379.914843031319</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378503</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O6" t="n">
-        <v>640.5848321000389</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308545</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R6" t="n">
-        <v>24.58388860977091</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K7" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091739</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L9" t="n">
-        <v>508.7132618620064</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P9" t="n">
-        <v>568.1422977634694</v>
+        <v>388.6189266346374</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308545</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K10" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>137.6579754225037</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>257.5646495407338</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>356.8062301067509</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>429.0050109457278</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>440.6071730376315</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>402.5828984949728</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>308.745693963795</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>183.1958181402557</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>20.29166330939907</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>62.98022089091745</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
-        <v>451.0527332560634</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>297.6803606378502</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>366.9313322820406</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>391.197099592874</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>335.4246819961231</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
-        <v>304.632674239197</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>326.5580100667037</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>25.72643735870595</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K13" t="n">
-        <v>173.4247593423491</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L13" t="n">
-        <v>278.011291583107</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M13" t="n">
-        <v>303.6179906468033</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N13" t="n">
-        <v>301.8881449860245</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
-        <v>262.664487629507</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P13" t="n">
-        <v>200.9965809818072</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>54.88175545805406</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>137.6579754225037</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>257.5646495407338</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>356.8062301067509</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
-        <v>429.0050109457278</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>440.6071730376315</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>402.5828984949728</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
-        <v>308.745693963795</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>183.1958181402557</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>20.29166330939907</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>189.0712562313263</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
-        <v>379.9148430313194</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>297.6803606378502</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>366.9313322820406</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>391.197099592874</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O15" t="n">
-        <v>335.4246819961231</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
-        <v>249.6795291235323</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>326.5580100667037</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>25.72643735870595</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K16" t="n">
-        <v>173.4247593423491</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L16" t="n">
-        <v>278.011291583107</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M16" t="n">
-        <v>303.6179906468033</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N16" t="n">
-        <v>301.8881449860245</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
-        <v>262.664487629507</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P16" t="n">
-        <v>200.9965809818072</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>54.88175545805406</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -36676,7 +36676,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K27" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
         <v>370.4021821340054</v>
@@ -36694,7 +36694,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -37077,7 +37077,7 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N32" t="n">
         <v>552.3018354129115</v>
@@ -37405,7 +37405,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37630,7 +37630,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N39" t="n">
         <v>478.3061046004592</v>
@@ -37642,7 +37642,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37870,7 +37870,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O42" t="n">
         <v>415.1124034525806</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N44" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127261</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K46" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L46" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M46" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N46" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O46" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P46" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q46" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
